--- a/Monthly/Ljung_Box/First Difference/fast_retailing.xlsx
+++ b/Monthly/Ljung_Box/First Difference/fast_retailing.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05551184283859906</v>
+        <v>0.05234404854431982</v>
+      </c>
+      <c r="C2">
+        <v>0.8190335248669587</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.05677779490844312</v>
+        <v>0.1447477578749332</v>
+      </c>
+      <c r="C3">
+        <v>0.93018305493784</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1529117212288891</v>
+        <v>0.5914138513550143</v>
       </c>
       <c r="C4">
-        <v>0.6957681990379909</v>
+        <v>0.8983951322262972</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1819646081519699</v>
+        <v>1.419279268968319</v>
       </c>
       <c r="C5">
-        <v>0.9130338677342569</v>
+        <v>0.8408373602420824</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2871285855377761</v>
+        <v>1.424898265136413</v>
       </c>
       <c r="C6">
-        <v>0.9624307857468403</v>
+        <v>0.9215704181188621</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.413881687093418</v>
+        <v>1.427956584194316</v>
       </c>
       <c r="C7">
-        <v>0.981324672146148</v>
+        <v>0.9641357311498003</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4747550415582432</v>
+        <v>1.567560905159187</v>
       </c>
       <c r="C8">
-        <v>0.9930185195339061</v>
+        <v>0.9798781067246196</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6281344586371772</v>
+        <v>1.589007309824225</v>
       </c>
       <c r="C9">
-        <v>0.9959127084766854</v>
+        <v>0.9911292974812468</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.310941630048732</v>
+        <v>3.494198720120929</v>
       </c>
       <c r="C10">
-        <v>0.9406484072241742</v>
+        <v>0.941451197065105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.522471640464618</v>
+        <v>4.543754639287821</v>
       </c>
       <c r="C11">
-        <v>0.8071807016405875</v>
+        <v>0.9195026271000766</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.842482208329707</v>
+        <v>4.947849955789476</v>
       </c>
       <c r="C12">
-        <v>0.7555740006201344</v>
+        <v>0.9336658305376311</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.952827906421532</v>
+        <v>5.168490106345838</v>
       </c>
       <c r="C13">
-        <v>0.8192107383500645</v>
+        <v>0.9521130373862127</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.360033199219837</v>
+        <v>5.847348044598757</v>
       </c>
       <c r="C14">
-        <v>0.7692229727422565</v>
+        <v>0.9515324496093907</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10.35700614190624</v>
+        <v>7.582402061253156</v>
       </c>
       <c r="C15">
-        <v>0.5846718454105735</v>
+        <v>0.9099286625264125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.35873600074382</v>
+        <v>7.690611752112329</v>
       </c>
       <c r="C16">
-        <v>0.6643689838571442</v>
+        <v>0.9355866639415542</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>10.35882129802103</v>
+        <v>7.712687882255527</v>
       </c>
       <c r="C17">
-        <v>0.7355072389031885</v>
+        <v>0.9569629786982109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>13.01192995104672</v>
+        <v>9.40259162934594</v>
       </c>
       <c r="C18">
-        <v>0.6013764332742939</v>
+        <v>0.9267790476268735</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13.34660212031468</v>
+        <v>9.982638375963386</v>
       </c>
       <c r="C19">
-        <v>0.6472665079167975</v>
+        <v>0.9324715562176004</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13.44581502841344</v>
+        <v>10.02592922617367</v>
       </c>
       <c r="C20">
-        <v>0.7058679362163731</v>
+        <v>0.9523032767788127</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14.12270498862027</v>
+        <v>10.55339450155888</v>
       </c>
       <c r="C21">
-        <v>0.7210579513619624</v>
+        <v>0.9569928291721344</v>
       </c>
     </row>
   </sheetData>
